--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F7A69B02102670C8F1E8527FC85EA3770B78242D" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CtIEPpUESoS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -14,56 +18,232 @@
     <sheet name="substitute fuels for coal" sheetId="5" r:id="rId4"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Early Retirement of Equipment</t>
+  </si>
+  <si>
+    <t>Alex MacCurdy et al.</t>
+  </si>
+  <si>
+    <t>Dual Baselines for Industrial Retrofits that Trigger Energy Codes</t>
+  </si>
+  <si>
+    <t>http://aceee.org/files/proceedings/2013/data/papers/3_166.pdf</t>
+  </si>
+  <si>
+    <t>Page 3-8, Table 4</t>
+  </si>
+  <si>
+    <t>Methodology Notes:</t>
+  </si>
+  <si>
+    <t>We estimate the cost of industrial equipment replacement per unit energy saved</t>
+  </si>
+  <si>
+    <t>via industrial motors, because of the availability of data.</t>
+  </si>
+  <si>
+    <t>Motors (and chillers) seem to be the focus of industrial equipment</t>
+  </si>
+  <si>
+    <t>early retirement programs- for instance, see Southern California</t>
+  </si>
+  <si>
+    <t>Edison's program, at:</t>
+  </si>
+  <si>
+    <t>https://www.sce.com/SC3/b-rs/large-business/spc/calculating-energy-savings.htm</t>
+  </si>
+  <si>
+    <t>So this seems like a reasonable means of estimation.</t>
+  </si>
+  <si>
+    <t>Motor Horsepower</t>
+  </si>
+  <si>
+    <t>Annual Energy Savings (Super Premium Motor vs. Rewind Existing Motor) (kWh)</t>
+  </si>
+  <si>
+    <t>Incremental Cost (cost of replacement above cost of rewinding) ($)</t>
+  </si>
+  <si>
+    <t>Investment per Unit Annual Energy Savings ($/kWh)</t>
+  </si>
+  <si>
+    <t>21-50</t>
+  </si>
+  <si>
+    <t>51-100</t>
+  </si>
+  <si>
+    <t>101-200</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>kWh per BTU (pure unit conversion, no efficiency loss)</t>
+  </si>
+  <si>
+    <t>Investment per Unit Annual Energy Savings ($/BTU)</t>
+  </si>
+  <si>
+    <t>We estimate the cost of converting coal equipment to use other fuel types</t>
+  </si>
+  <si>
+    <t>via the conversion of coal-fired biolers to natural gas, because of the</t>
+  </si>
+  <si>
+    <t>availability of data.</t>
+  </si>
+  <si>
+    <t>Typical Pulverized Coal to Natural Gas Conversions</t>
+  </si>
+  <si>
+    <t>Babcock and Wilcox</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Cost per Unit Capacity ($/kW)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Natural Gas Conversions of Existing Coal-Fired Boilers</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>http://www.babcock.com/library/Documents/MS-14.pdf</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Page 2, "Financial Considerations," paragraph 1</t>
+  </si>
+  <si>
+    <t>Industrial Boiler Capacity Factor</t>
+  </si>
+  <si>
+    <t>Energy and Environmental Analysis, Inc.</t>
+  </si>
+  <si>
+    <t>Characterization of the U.S. Industrial/Commercial Boiler Population</t>
+  </si>
+  <si>
+    <t>Hours per Year</t>
+  </si>
+  <si>
+    <t>http://www1.eere.energy.gov/manufacturing/distributedenergy/pdfs/characterization_industrial_commerical_boiler_population.pdf</t>
+  </si>
+  <si>
+    <t>Page ES-4, Section ES-5, Paragraph 2, last sentence</t>
+  </si>
+  <si>
+    <t>Investment Cost per Unit Annual Energy Converted ($/kWh)</t>
+  </si>
+  <si>
+    <t>Investment per Unit Energy Converted ($/BTU)</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Institute</t>
+  </si>
+  <si>
+    <t>Reinventing Fire: Bold Business Solutions for the New Energy Era</t>
+  </si>
+  <si>
+    <t>http://www.rmi.org/RFGraph-Cumulative_2010_value_capital_investment_fuel_savings</t>
+  </si>
+  <si>
+    <t>Cumulative 2010 present value of capital investment and fuel savings</t>
+  </si>
+  <si>
+    <t>Note on pixel measurement of this bar graph:</t>
+  </si>
+  <si>
+    <t>with white pixels from the upper and lower bar segments at each junction, with an extra row of the bottom bar at each junction replaced if there</t>
+  </si>
+  <si>
+    <t>are an odd number of lines of white pixel rows to be applied (which is based on zoom level and graph settings).  The top of the uppermost bar</t>
+  </si>
+  <si>
+    <t>segment is covered with the same number of rows of white pixels as the top of any other bar segment (half of a gap, rounding up).</t>
+  </si>
+  <si>
+    <t>Therefore, to correctly measure any bar segment except the bottom one, you can measure the colored part plus one complete white gap</t>
+  </si>
+  <si>
+    <t>between bar segments.  To correctly measure the bottom bar segment, include only half of one white gap, rounding up.</t>
+  </si>
+  <si>
+    <t>Cumulative Cost of Upgrades (2009 $)</t>
+  </si>
   <si>
     <t>CtIEPpUESoS Cost to Implement Efficiency Policy per Unit Energy Saved or Shifted</t>
   </si>
   <si>
-    <t>Source:</t>
+    <t>early eqpt retirement</t>
+  </si>
+  <si>
+    <t>proper installation and use of eqpt</t>
+  </si>
+  <si>
+    <t>cogeneration and waste heat recovery</t>
+  </si>
+  <si>
+    <t>substitute other fuels for coal</t>
+  </si>
+  <si>
+    <t>eqpt efficiency stds</t>
+  </si>
+  <si>
+    <t>research and development</t>
   </si>
   <si>
     <t>early retirement of equipment</t>
   </si>
   <si>
-    <t>Alex MacCurdy et al.</t>
-  </si>
-  <si>
-    <t>Dual Baselines for Industrial Retrofits that Trigger Energy Codes</t>
-  </si>
-  <si>
-    <t>http://aceee.org/files/proceedings/2013/data/papers/3_166.pdf</t>
-  </si>
-  <si>
-    <t>Page 3-8, Table 4</t>
+    <t>substitute other fuels for coal: conversion costs per unit capacity</t>
+  </si>
+  <si>
+    <t>substitute other fuels for coal: capacity factor</t>
+  </si>
+  <si>
+    <t>Substitute Other Fuels for Coal</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>For the "subsitute other fuels for coal" policy, the cost is per unit of energy shifted from coal to</t>
+  </si>
+  <si>
+    <t>another fuel type, not per unit of energy saved.</t>
+  </si>
+  <si>
+    <t>achieves this energy savings/shifting annually.</t>
+  </si>
+  <si>
+    <t>All costs are per BTU of energy saved or shifted per year.  That is, it is the cost to buy equipment that</t>
   </si>
   <si>
     <t>cogeneration and WHR, equipment standards: total cost</t>
   </si>
   <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire: Bold Business Solutions for the New Energy Era</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-Cumulative_2010_value_capital_investment_fuel_savings</t>
-  </si>
-  <si>
-    <t>Cumulative 2010 present value of capital investment and fuel savings</t>
-  </si>
-  <si>
     <t>cogeneration and WHR, equipment standards: annual energy savings</t>
   </si>
   <si>
@@ -76,49 +256,55 @@
     <t>Book page 127, Figure 4-2 (or see link above)</t>
   </si>
   <si>
-    <t>substitute other fuels for coal: conversion costs per unit capacity</t>
-  </si>
-  <si>
-    <t>Babcock and Wilcox</t>
-  </si>
-  <si>
-    <t>Natural Gas Conversions of Existing Coal-Fired Boilers</t>
-  </si>
-  <si>
-    <t>http://www.babcock.com/library/Documents/MS-14.pdf</t>
-  </si>
-  <si>
-    <t>Page 2, "Financial Considerations," paragraph 1</t>
-  </si>
-  <si>
-    <t>substitute other fuels for coal: capacity factor</t>
-  </si>
-  <si>
-    <t>Energy and Environmental Analysis, Inc.</t>
-  </si>
-  <si>
-    <t>Characterization of the U.S. Industrial/Commercial Boiler Population</t>
-  </si>
-  <si>
-    <t>http://www1.eere.energy.gov/manufacturing/distributedenergy/pdfs/characterization_industrial_commerical_boiler_population.pdf</t>
-  </si>
-  <si>
-    <t>Page ES-4, Section ES-5, Paragraph 2, last sentence</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>For the "subsitute other fuels for coal" policy, the cost is per unit of energy shifted from coal to</t>
-  </si>
-  <si>
-    <t>another fuel type, not per unit of energy saved.</t>
-  </si>
-  <si>
-    <t>All costs are per BTU of energy saved or shifted per year.  That is, it is the cost to buy equipment that</t>
-  </si>
-  <si>
-    <t>achieves this energy savings/shifting annually.</t>
+    <t>Annual energy savings achievable in 2050 (BTU)</t>
+  </si>
+  <si>
+    <t>Total investment cost to achieve those annual savings in 2050</t>
+  </si>
+  <si>
+    <t>RMI's graph was made in Excel.  For this type of graph (namely, white lines separating stacked bars),</t>
+  </si>
+  <si>
+    <t>Excel replaces an equal number of rows of colored pixels</t>
+  </si>
+  <si>
+    <t>Cost per Unit Energy Saved Annually ($/BTU)</t>
+  </si>
+  <si>
+    <t>efficiency technology</t>
+  </si>
+  <si>
+    <t>The graph used appears below.  To correspond to the total energy savings found above, we want to use the set of pink bars that</t>
+  </si>
+  <si>
+    <t>correspond to investment over the 2010-2050 period.  We assume the key inside the rightmost blue bar applies to all bars, so</t>
+  </si>
+  <si>
+    <t>light pink corresponds to CHP Waste Heat and midtone pink corresponds to efficiency technology.</t>
+  </si>
+  <si>
+    <t>Since RMI only provides a numerical value for the hight of the complete pink bar, not values for each of the three shades of</t>
+  </si>
+  <si>
+    <t>pink that compose it, we muse use pixel-based measurement to obtain our data from the graph.</t>
+  </si>
+  <si>
+    <t>CHP &amp; waste heat</t>
+  </si>
+  <si>
+    <t>2010-2050, this policy (pixels)</t>
+  </si>
+  <si>
+    <t>Investment, total (2009 $)</t>
+  </si>
+  <si>
+    <t>2010-2050, total (pixels)</t>
+  </si>
+  <si>
+    <t>Investment, this policy (2009 $)</t>
+  </si>
+  <si>
+    <t>Cogeneration and Waste Heat Recovery, Equipment Efficiency Standards</t>
   </si>
   <si>
     <t>We assume the "proper installation and use of equipment" has no investment cost, as it is a different</t>
@@ -136,10 +322,13 @@
     <t>MacCurdy et al. do not specify the year of the currency in Table 4.  We assume it to be the year of the</t>
   </si>
   <si>
+    <t>Babcock and Wilcox do not specify the year of their dollar figures, so we assume it is the year of publication (2010).</t>
+  </si>
+  <si>
     <t xml:space="preserve">publication, which is 2013.  RMI currency is in 2010 dollars.  </t>
   </si>
   <si>
-    <t>Babcock and Wilcox do not specify the year of their dollar figures, so we assume it is the year of publication (2010).</t>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
     <t>We adjust the dollars to 2012 dollars using the following conversion factors:</t>
@@ -151,211 +340,22 @@
     <t>2010 to 2012, RMI and Babcock and Wilcox</t>
   </si>
   <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>Early Retirement of Equipment</t>
-  </si>
-  <si>
-    <t>Methodology Notes:</t>
-  </si>
-  <si>
-    <t>We estimate the cost of industrial equipment replacement per unit energy saved</t>
-  </si>
-  <si>
-    <t>via industrial motors, because of the availability of data.</t>
-  </si>
-  <si>
-    <t>Motors (and chillers) seem to be the focus of industrial equipment</t>
-  </si>
-  <si>
-    <t>early retirement programs- for instance, see Southern California</t>
-  </si>
-  <si>
-    <t>Edison's program, at:</t>
-  </si>
-  <si>
-    <t>https://www.sce.com/SC3/b-rs/large-business/spc/calculating-energy-savings.htm</t>
-  </si>
-  <si>
-    <t>So this seems like a reasonable means of estimation.</t>
-  </si>
-  <si>
-    <t>Motor Horsepower</t>
-  </si>
-  <si>
-    <t>Annual Energy Savings (Super Premium Motor vs. Rewind Existing Motor) (kWh)</t>
-  </si>
-  <si>
-    <t>Incremental Cost (cost of replacement above cost of rewinding) ($)</t>
-  </si>
-  <si>
-    <t>Investment per Unit Annual Energy Savings ($/kWh)</t>
-  </si>
-  <si>
-    <t>21-50</t>
-  </si>
-  <si>
-    <t>51-100</t>
-  </si>
-  <si>
-    <t>101-200</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>kWh per BTU (pure unit conversion, no efficiency loss)</t>
-  </si>
-  <si>
-    <t>Investment per Unit Annual Energy Savings ($/BTU)</t>
-  </si>
-  <si>
-    <t>Cogeneration and Waste Heat Recovery, Equipment Efficiency Standards</t>
-  </si>
-  <si>
-    <t>Annual energy savings achievable in 2050 (BTU)</t>
-  </si>
-  <si>
-    <t>CHP &amp; waste heat</t>
-  </si>
-  <si>
-    <t>efficiency technology</t>
-  </si>
-  <si>
-    <t>Total investment cost to achieve those annual savings in 2050</t>
-  </si>
-  <si>
-    <t>The graph used appears below.  To correspond to the total energy savings found above, we want to use the set of pink bars that</t>
-  </si>
-  <si>
-    <t>correspond to investment over the 2010-2050 period.  We assume the key inside the rightmost blue bar applies to all bars, so</t>
-  </si>
-  <si>
-    <t>light pink corresponds to CHP Waste Heat and midtone pink corresponds to efficiency technology.</t>
-  </si>
-  <si>
-    <t>Since RMI only provides a numerical value for the hight of the complete pink bar, not values for each of the three shades of</t>
-  </si>
-  <si>
-    <t>pink that compose it, we muse use pixel-based measurement to obtain our data from the graph.</t>
-  </si>
-  <si>
-    <t>Note on pixel measurement of this bar graph:</t>
-  </si>
-  <si>
-    <t>RMI's graph was made in Excel.  For this type of graph (namely, white lines separating stacked bars),</t>
-  </si>
-  <si>
-    <t>Excel replaces an equal number of rows of colored pixels</t>
-  </si>
-  <si>
-    <t>with white pixels from the upper and lower bar segments at each junction, with an extra row of the bottom bar at each junction replaced if there</t>
-  </si>
-  <si>
-    <t>are an odd number of lines of white pixel rows to be applied (which is based on zoom level and graph settings).  The top of the uppermost bar</t>
-  </si>
-  <si>
-    <t>segment is covered with the same number of rows of white pixels as the top of any other bar segment (half of a gap, rounding up).</t>
-  </si>
-  <si>
-    <t>Therefore, to correctly measure any bar segment except the bottom one, you can measure the colored part plus one complete white gap</t>
-  </si>
-  <si>
-    <t>between bar segments.  To correctly measure the bottom bar segment, include only half of one white gap, rounding up.</t>
-  </si>
-  <si>
-    <t>Cumulative Cost of Upgrades (2009 $)</t>
-  </si>
-  <si>
-    <t>2010-2050, total (pixels)</t>
-  </si>
-  <si>
-    <t>2010-2050, this policy (pixels)</t>
-  </si>
-  <si>
-    <t>Investment, total (2009 $)</t>
-  </si>
-  <si>
-    <t>Investment, this policy (2009 $)</t>
-  </si>
-  <si>
-    <t>Cost per Unit Energy Saved Annually ($/BTU)</t>
-  </si>
-  <si>
-    <t>Substitute Other Fuels for Coal</t>
-  </si>
-  <si>
-    <t>We estimate the cost of converting coal equipment to use other fuel types</t>
-  </si>
-  <si>
-    <t>via the conversion of coal-fired biolers to natural gas, because of the</t>
-  </si>
-  <si>
-    <t>availability of data.</t>
-  </si>
-  <si>
-    <t>Typical Pulverized Coal to Natural Gas Conversions</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity ($/kW)</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>Industrial Boiler Capacity Factor</t>
-  </si>
-  <si>
-    <t>Hours per Year</t>
-  </si>
-  <si>
-    <t>Investment Cost per Unit Annual Energy Converted ($/kWh)</t>
-  </si>
-  <si>
-    <t>Investment per Unit Energy Converted ($/BTU)</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>Cost per Unit Energy (2012$/BTU)</t>
-  </si>
-  <si>
-    <t>early eqpt retirement</t>
-  </si>
-  <si>
-    <t>proper installation and use of eqpt</t>
-  </si>
-  <si>
-    <t>cogeneration and waste heat recovery</t>
-  </si>
-  <si>
-    <t>eqpt efficiency stds</t>
-  </si>
-  <si>
-    <t>substitute other fuels for coal</t>
-  </si>
-  <si>
     <t>substitute other fuels for natural gas</t>
   </si>
   <si>
-    <t>research and development</t>
+    <t>This variable supports time series data for adaptation to other regions, but as of EPS 1.5.0, we</t>
+  </si>
+  <si>
+    <t>have only time-invariant data for the U.S.</t>
+  </si>
+  <si>
+    <t>Cost ($/BTU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -365,7 +365,7 @@
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +521,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -588,9 +588,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,17 +606,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="6"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4"/>
+    <cellStyle name="Footnotes: top row" xfId="8"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="7"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,13 +652,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -765,23 +760,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -817,23 +795,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,297 +970,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="3" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
-      <c r="A7" s="35"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="35"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="35"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="14.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="35"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="5">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="35"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="35"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="35"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="35"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="35"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="35"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="35"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="35"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="35"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="35"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="35"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="35"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="35"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="35"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="24"/>
+    </row>
+    <row r="40" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="24"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="34">
         <v>0.98699999999999999</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="35" customFormat="1">
-      <c r="A56" s="36">
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="35">
         <v>1.0549999999999999</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="35"/>
+      <c r="B60" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="34" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B35" r:id="rId3"/>
+    <hyperlink ref="B21" r:id="rId4"/>
+    <hyperlink ref="B28" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -1307,96 +1254,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="23.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="10" spans="1:4" ht="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <v>4262</v>
@@ -1409,9 +1337,9 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
-        <v>56</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>8738</v>
@@ -1424,9 +1352,9 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
-        <v>57</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="5">
         <v>13901</v>
@@ -1439,9 +1367,9 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1450,225 +1378,187 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
-      <c r="B17" s="35"/>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="29">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="28">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
       </c>
-      <c r="B20" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="31">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="30">
         <f>2.4*10^15</f>
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="31">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="30">
         <f>2.3*10^15</f>
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="35"/>
-    </row>
-    <row r="8" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="35"/>
-    </row>
-    <row r="9" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="35"/>
-    </row>
-    <row r="10" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="35"/>
-    </row>
-    <row r="11" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="35"/>
-    </row>
-    <row r="13" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
-      <c r="B13" s="35"/>
-    </row>
-    <row r="14" spans="1:2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="35"/>
-    </row>
-    <row r="15" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="35"/>
-    </row>
-    <row r="16" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="35"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="23" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="35" t="s">
-        <v>63</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="26">
         <v>114</v>
@@ -1680,14 +1570,14 @@
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f>(C25/B25)*D25</f>
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="35" t="s">
-        <v>64</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="26">
         <v>114</v>
@@ -1699,50 +1589,46 @@
         <f>284*10^9</f>
         <v>284000000000</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <f>(C26/B26)*D26</f>
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="26"/>
       <c r="B27" s="5"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="34"/>
+        <v>81</v>
+      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="33">
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="32">
         <f>E25/B4</f>
         <v>2.2836257309941521E-5</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="33">
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="32">
         <f>E26/B5</f>
         <v>5.4157131960335617E-6</v>
       </c>
       <c r="C30" s="27"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,90 +1638,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
+    <col min="2" max="2" width="33.73046875" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
-      <c r="B5" s="35" t="s">
-        <v>88</v>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
-      <c r="B6" s="35"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="B9" s="18">
         <v>50</v>
       </c>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B10" s="19">
         <v>75</v>
       </c>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B11" s="21">
         <f>AVERAGE(B9:B10)</f>
@@ -1843,77 +1723,71 @@
       </c>
       <c r="C11" s="22"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="22"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <v>0.47</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <f>24*365</f>
         <v>8760</v>
       </c>
-      <c r="B17" s="35"/>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="23">
         <f>B11/(A17*A14)</f>
         <v>1.5180219566695814E-2</v>
       </c>
-      <c r="B20" s="35"/>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
-      <c r="B23" s="35"/>
-    </row>
-    <row r="25" spans="1:2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="29">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="28">
         <f>A20*A23</f>
         <v>4.4478043330418734E-6</v>
       </c>
-      <c r="B26" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1921,86 +1795,1080 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="30">
-        <f>'early retirement'!A20*About!$A$55</f>
-        <v>1.4243732995275992E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="30">
-        <f>'cogen and WHR + eqpt stds'!B29*About!$A$56</f>
-        <v>2.4092251461988303E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="30">
-        <f>'cogen and WHR + eqpt stds'!B30*About!$A$56</f>
-        <v>5.7135774218154072E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="34">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="36">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="34">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="36">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="34">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="36">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="34">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="36">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="34">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="36">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="34">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="36">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="34">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="36">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="34">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="36">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="34">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="36">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="34">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="36">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="34">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="36">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="34">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="36">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="34">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="36">
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="34">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="36">
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="34">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="36">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="29">
+        <f>'early retirement'!A20*About!$A$59</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="C2" s="29">
+        <f>$B2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="D2" s="29">
+        <f>$B2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="E2" s="29">
+        <f t="shared" ref="E2:AH8" si="0">$B2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="F2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="G2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="I2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="J2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="K2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="L2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="M2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="N2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="O2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="P2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="Q2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="R2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="S2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="T2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="U2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="V2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="W2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="X2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="Y2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="Z2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AA2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AB2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AC2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AD2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AE2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AF2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AG2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="AH2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37">
+        <f t="shared" ref="C3:R8" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="29">
+        <f>'cogen and WHR + eqpt stds'!B29*About!$A$60</f>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="C4" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="D4" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="F4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="I4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="J4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="K4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="L4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="M4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="N4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="O4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="P4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="Q4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="R4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="S4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="T4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="U4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="V4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="W4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="X4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="Y4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="Z4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AA4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AB4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AC4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AD4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AE4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AF4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AG4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="AH4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="29">
+        <f>'cogen and WHR + eqpt stds'!B30*About!$A$60</f>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="C5" s="29">
+        <f t="shared" si="1"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" si="1"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="F5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="J5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="K5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="L5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="M5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="N5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="O5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="P5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="Q5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="R5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="S5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="T5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="U5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="V5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="W5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="X5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="Y5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="Z5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AA5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AB5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AC5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AD5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AE5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AF5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AG5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="AH5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="29">
+        <f>'substitute fuels for coal'!A26*About!$A$60</f>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="C6" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="D6" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="F6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="N6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="O6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="P6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="R6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="S6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="T6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="U6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="V6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="W6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="X6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Y6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Z6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AA6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AB6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AC6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AD6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AE6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AF6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AG6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AH6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="30">
-        <f>'substitute fuels for coal'!A26*About!$A$56</f>
-        <v>4.6924335713591759E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="35" customFormat="1">
-      <c r="A7" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <f>B6</f>
         <v>4.6924335713591759E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="35">
+      <c r="C7" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="K7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="M7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="N7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="O7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Q7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="R7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="S7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="T7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="U7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="V7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="W7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="X7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Y7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="Z7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AA7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AB7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AC7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AD7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AE7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AF7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AG7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="AH7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2011,15 +2879,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2253,6 +3112,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2263,13 +3131,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BB0C97-FCC9-4596-ACCC-CEFA6157CD44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D02DA54-8B2B-4440-AEB8-50AC06DD37CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF2173-8EDF-4697-BD48-8CADFF8E3661}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA83B3AC-75DD-44F0-A1C6-463B9A9A1E54}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F87F1328-DC2B-4081-87DC-96EE383A75CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00ECDE7E-25E8-4EFA-844B-211350A6675A}"/>
 </file>
--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\indst\CtIEPpUESoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -973,19 +973,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="81.73046875" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,233 +993,233 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
     </row>
-    <row r="40" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>0.98699999999999999</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <v>1.0549999999999999</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>101</v>
       </c>
@@ -1259,20 +1259,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="26.1328125" customWidth="1"/>
-    <col min="4" max="4" width="23.86328125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,22 +1280,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1303,12 +1303,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1378,25 +1378,25 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
@@ -1416,30 +1416,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>2400000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1457,83 +1457,83 @@
         <v>2300000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>54807017543.85965</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1594,13 +1594,13 @@
         <v>12456140350.877192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="5"/>
       <c r="C27" s="27"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>81</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="C28" s="27"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1643,19 +1643,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.265625" customWidth="1"/>
-    <col min="2" max="2" width="33.73046875" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1663,30 +1663,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>35</v>
       </c>
@@ -1723,67 +1723,67 @@
       </c>
       <c r="C11" s="22"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="22"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>0.47</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>B11/(A17*A14)</f>
         <v>1.5180219566695814E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <f>A20*A23</f>
         <v>4.4478043330418734E-6</v>
@@ -1799,144 +1799,148 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="36">
+      <c r="B1" s="24">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="36">
         <v>2018</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2019</v>
       </c>
-      <c r="D1" s="36">
+      <c r="E1" s="36">
         <v>2020</v>
       </c>
-      <c r="E1" s="34">
+      <c r="F1" s="34">
         <v>2021</v>
       </c>
-      <c r="F1" s="36">
+      <c r="G1" s="36">
         <v>2022</v>
       </c>
-      <c r="G1" s="34">
+      <c r="H1" s="34">
         <v>2023</v>
       </c>
-      <c r="H1" s="36">
+      <c r="I1" s="36">
         <v>2024</v>
       </c>
-      <c r="I1" s="34">
+      <c r="J1" s="34">
         <v>2025</v>
       </c>
-      <c r="J1" s="36">
+      <c r="K1" s="36">
         <v>2026</v>
       </c>
-      <c r="K1" s="34">
+      <c r="L1" s="34">
         <v>2027</v>
       </c>
-      <c r="L1" s="36">
+      <c r="M1" s="36">
         <v>2028</v>
       </c>
-      <c r="M1" s="34">
+      <c r="N1" s="34">
         <v>2029</v>
       </c>
-      <c r="N1" s="36">
+      <c r="O1" s="36">
         <v>2030</v>
       </c>
-      <c r="O1" s="34">
+      <c r="P1" s="34">
         <v>2031</v>
       </c>
-      <c r="P1" s="36">
+      <c r="Q1" s="36">
         <v>2032</v>
       </c>
-      <c r="Q1" s="34">
+      <c r="R1" s="34">
         <v>2033</v>
       </c>
-      <c r="R1" s="36">
+      <c r="S1" s="36">
         <v>2034</v>
       </c>
-      <c r="S1" s="34">
+      <c r="T1" s="34">
         <v>2035</v>
       </c>
-      <c r="T1" s="36">
+      <c r="U1" s="36">
         <v>2036</v>
       </c>
-      <c r="U1" s="34">
+      <c r="V1" s="34">
         <v>2037</v>
       </c>
-      <c r="V1" s="36">
+      <c r="W1" s="36">
         <v>2038</v>
       </c>
-      <c r="W1" s="34">
+      <c r="X1" s="34">
         <v>2039</v>
       </c>
-      <c r="X1" s="36">
+      <c r="Y1" s="36">
         <v>2040</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Z1" s="34">
         <v>2041</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="AA1" s="36">
         <v>2042</v>
       </c>
-      <c r="AA1" s="34">
+      <c r="AB1" s="34">
         <v>2043</v>
       </c>
-      <c r="AB1" s="36">
+      <c r="AC1" s="36">
         <v>2044</v>
       </c>
-      <c r="AC1" s="34">
+      <c r="AD1" s="34">
         <v>2045</v>
       </c>
-      <c r="AD1" s="36">
+      <c r="AE1" s="36">
         <v>2046</v>
       </c>
-      <c r="AE1" s="34">
+      <c r="AF1" s="34">
         <v>2047</v>
       </c>
-      <c r="AF1" s="36">
+      <c r="AG1" s="36">
         <v>2048</v>
       </c>
-      <c r="AG1" s="34">
+      <c r="AH1" s="34">
         <v>2049</v>
       </c>
-      <c r="AH1" s="36">
+      <c r="AI1" s="36">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="29">
+        <f>C2</f>
+        <v>1.4243732995275992E-4</v>
+      </c>
+      <c r="C2" s="29">
         <f>'early retirement'!A20*About!$A$59</f>
         <v>1.4243732995275992E-4</v>
       </c>
-      <c r="C2" s="29">
-        <f>$B2</f>
-        <v>1.4243732995275992E-4</v>
-      </c>
       <c r="D2" s="29">
-        <f>$B2</f>
+        <f>$C2</f>
         <v>1.4243732995275992E-4</v>
       </c>
       <c r="E2" s="29">
-        <f t="shared" ref="E2:AH8" si="0">$B2</f>
+        <f>$C2</f>
         <v>1.4243732995275992E-4</v>
       </c>
       <c r="F2" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:AI8" si="0">$C2</f>
         <v>1.4243732995275992E-4</v>
       </c>
       <c r="G2" s="29">
@@ -2051,80 +2055,84 @@
         <f t="shared" si="0"/>
         <v>1.4243732995275992E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI2" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4243732995275992E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
-        <f t="shared" ref="C3:R8" si="1">$B3</f>
+      <c r="B3" s="29">
+        <f t="shared" ref="B3:B8" si="1">C3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:S8" si="2">$C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R3" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S3" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T3" s="37">
@@ -2187,25 +2195,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI3" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="29">
+        <f t="shared" si="1"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+      <c r="C4" s="29">
         <f>'cogen and WHR + eqpt stds'!B29*About!$A$60</f>
         <v>2.4092251461988303E-5</v>
       </c>
-      <c r="C4" s="29">
-        <f t="shared" si="1"/>
-        <v>2.4092251461988303E-5</v>
-      </c>
       <c r="D4" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4092251461988303E-5</v>
       </c>
       <c r="E4" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4092251461988303E-5</v>
       </c>
       <c r="F4" s="29">
@@ -2324,25 +2336,29 @@
         <f t="shared" si="0"/>
         <v>2.4092251461988303E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI4" s="29">
+        <f t="shared" si="0"/>
+        <v>2.4092251461988303E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="29">
+        <f t="shared" si="1"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+      <c r="C5" s="29">
         <f>'cogen and WHR + eqpt stds'!B30*About!$A$60</f>
         <v>5.7135774218154072E-6</v>
       </c>
-      <c r="C5" s="29">
-        <f t="shared" si="1"/>
-        <v>5.7135774218154072E-6</v>
-      </c>
       <c r="D5" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7135774218154072E-6</v>
       </c>
       <c r="E5" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7135774218154072E-6</v>
       </c>
       <c r="F5" s="29">
@@ -2461,25 +2477,29 @@
         <f t="shared" si="0"/>
         <v>5.7135774218154072E-6</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.7135774218154072E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="29">
+        <f t="shared" si="1"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+      <c r="C6" s="29">
         <f>'substitute fuels for coal'!A26*About!$A$60</f>
         <v>4.6924335713591759E-6</v>
       </c>
-      <c r="C6" s="29">
-        <f t="shared" si="1"/>
-        <v>4.6924335713591759E-6</v>
-      </c>
       <c r="D6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6924335713591759E-6</v>
       </c>
       <c r="E6" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6924335713591759E-6</v>
       </c>
       <c r="F6" s="29">
@@ -2598,25 +2618,29 @@
         <f t="shared" si="0"/>
         <v>4.6924335713591759E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AI6" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="29">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>4.6924335713591759E-6</v>
       </c>
       <c r="C7" s="29">
-        <f t="shared" si="1"/>
+        <f>C6</f>
         <v>4.6924335713591759E-6</v>
       </c>
       <c r="D7" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6924335713591759E-6</v>
       </c>
       <c r="E7" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6924335713591759E-6</v>
       </c>
       <c r="F7" s="29">
@@ -2735,24 +2759,28 @@
         <f t="shared" si="0"/>
         <v>4.6924335713591759E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AI7" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="37">
+      <c r="B8" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="37">
@@ -2868,6 +2896,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2879,6 +2911,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3112,32 +3162,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D02DA54-8B2B-4440-AEB8-50AC06DD37CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00ECDE7E-25E8-4EFA-844B-211350A6675A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA83B3AC-75DD-44F0-A1C6-463B9A9A1E54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA83B3AC-75DD-44F0-A1C6-463B9A9A1E54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00ECDE7E-25E8-4EFA-844B-211350A6675A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D02DA54-8B2B-4440-AEB8-50AC06DD37CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>